--- a/Output/output.xlsx
+++ b/Output/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldlugosch/Jupyter Notebook/commit_004/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31889DD-6154-6944-9AD3-6A497FA40425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25740" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -139,29 +133,29 @@
     <t>23. KW</t>
   </si>
   <si>
+    <t>Auskunftstheke</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>24. KW</t>
+  </si>
+  <si>
+    <t>Deutz</t>
+  </si>
+  <si>
+    <t>Südstadt</t>
+  </si>
+  <si>
     <t>Ausleihtheke</t>
-  </si>
-  <si>
-    <t>Deutz</t>
-  </si>
-  <si>
-    <t>Südstadt</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Auskunftstheke</t>
-  </si>
-  <si>
-    <t>24. KW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,23 +214,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,27 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,24 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,16 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -613,12 +561,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -629,7 +577,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -644,25 +592,25 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -679,34 +627,34 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
       </c>
       <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -717,25 +665,25 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
       <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
         <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -744,13 +692,13 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -758,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -766,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -810,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -898,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -942,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -986,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -994,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1038,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,7 +1030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1126,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1170,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1214,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1258,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1302,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1346,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1390,7 +1338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1434,7 +1382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1478,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1522,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1566,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1574,7 +1522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1618,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1626,7 +1574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1670,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1714,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1722,7 +1670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1766,7 +1714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1810,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1854,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1898,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>

--- a/Output/output.xlsx
+++ b/Output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="45">
   <si>
     <t>Projekt Weiterentwicklung der Ausleihe und Auskunft</t>
   </si>
@@ -130,25 +130,25 @@
     <t>8. Weder noch (siehe einzelne Listen)</t>
   </si>
   <si>
+    <t>24. KW</t>
+  </si>
+  <si>
+    <t>Auskunftstheke</t>
+  </si>
+  <si>
+    <t>Deutz</t>
+  </si>
+  <si>
+    <t>Ausleihtheke</t>
+  </si>
+  <si>
     <t>23. KW</t>
   </si>
   <si>
-    <t>Auskunftstheke</t>
-  </si>
-  <si>
     <t>GM</t>
   </si>
   <si>
-    <t>24. KW</t>
-  </si>
-  <si>
-    <t>Deutz</t>
-  </si>
-  <si>
     <t>Südstadt</t>
-  </si>
-  <si>
-    <t>Ausleihtheke</t>
   </si>
 </sst>
 </file>
@@ -506,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +552,44 @@
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -561,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,7 +613,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -586,31 +622,67 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -621,40 +693,76 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -665,31 +773,31 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
@@ -697,8 +805,44 @@
       <c r="N6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -706,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -714,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -757,8 +901,44 @@
       <c r="N9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -801,8 +981,44 @@
       <c r="N10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -845,8 +1061,44 @@
       <c r="N11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -889,8 +1141,44 @@
       <c r="N12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -933,8 +1221,44 @@
       <c r="N13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -985,8 +1309,44 @@
       <c r="N15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1029,8 +1389,44 @@
       <c r="N16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <v>19</v>
+      </c>
+      <c r="S16">
+        <v>19</v>
+      </c>
+      <c r="T16">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>19</v>
+      </c>
+      <c r="V16">
+        <v>19</v>
+      </c>
+      <c r="W16">
+        <v>19</v>
+      </c>
+      <c r="X16">
+        <v>19</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1073,8 +1469,44 @@
       <c r="N17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+      <c r="R17">
+        <v>13</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="U17">
+        <v>13</v>
+      </c>
+      <c r="V17">
+        <v>13</v>
+      </c>
+      <c r="W17">
+        <v>13</v>
+      </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
+      <c r="Y17">
+        <v>13</v>
+      </c>
+      <c r="Z17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1117,8 +1549,44 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1161,8 +1629,44 @@
       <c r="N19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1205,8 +1709,44 @@
       <c r="N20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <v>19</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <v>19</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+      <c r="Z20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1249,8 +1789,44 @@
       <c r="N21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1293,8 +1869,44 @@
       <c r="N22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <v>15</v>
+      </c>
+      <c r="W22">
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <v>15</v>
+      </c>
+      <c r="Y22">
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1337,8 +1949,44 @@
       <c r="N23">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>45</v>
+      </c>
+      <c r="P23">
+        <v>45</v>
+      </c>
+      <c r="Q23">
+        <v>45</v>
+      </c>
+      <c r="R23">
+        <v>45</v>
+      </c>
+      <c r="S23">
+        <v>45</v>
+      </c>
+      <c r="T23">
+        <v>45</v>
+      </c>
+      <c r="U23">
+        <v>45</v>
+      </c>
+      <c r="V23">
+        <v>45</v>
+      </c>
+      <c r="W23">
+        <v>45</v>
+      </c>
+      <c r="X23">
+        <v>45</v>
+      </c>
+      <c r="Y23">
+        <v>45</v>
+      </c>
+      <c r="Z23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1381,8 +2029,44 @@
       <c r="N24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <v>18</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+      <c r="R24">
+        <v>18</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>18</v>
+      </c>
+      <c r="U24">
+        <v>18</v>
+      </c>
+      <c r="V24">
+        <v>18</v>
+      </c>
+      <c r="W24">
+        <v>18</v>
+      </c>
+      <c r="X24">
+        <v>18</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1425,8 +2109,44 @@
       <c r="N25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>8</v>
+      </c>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>8</v>
+      </c>
+      <c r="Y25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1469,8 +2189,44 @@
       <c r="N26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>11</v>
+      </c>
+      <c r="U26">
+        <v>11</v>
+      </c>
+      <c r="V26">
+        <v>11</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>11</v>
+      </c>
+      <c r="Y26">
+        <v>11</v>
+      </c>
+      <c r="Z26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1513,8 +2269,44 @@
       <c r="N27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1522,7 +2314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1565,8 +2357,44 @@
       <c r="N29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1574,7 +2402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1617,8 +2445,44 @@
       <c r="N31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>8</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>8</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>8</v>
+      </c>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1661,8 +2525,44 @@
       <c r="N32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1670,7 +2570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1713,8 +2613,44 @@
       <c r="N34">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>21</v>
+      </c>
+      <c r="P34">
+        <v>21</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34">
+        <v>21</v>
+      </c>
+      <c r="S34">
+        <v>21</v>
+      </c>
+      <c r="T34">
+        <v>21</v>
+      </c>
+      <c r="U34">
+        <v>21</v>
+      </c>
+      <c r="V34">
+        <v>21</v>
+      </c>
+      <c r="W34">
+        <v>21</v>
+      </c>
+      <c r="X34">
+        <v>21</v>
+      </c>
+      <c r="Y34">
+        <v>21</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1757,8 +2693,44 @@
       <c r="N35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1801,8 +2773,44 @@
       <c r="N36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="W36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1845,8 +2853,44 @@
       <c r="N37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>10</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>10</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1887,6 +2931,42 @@
         <v>12</v>
       </c>
       <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+      <c r="R38">
+        <v>12</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38">
+        <v>12</v>
+      </c>
+      <c r="U38">
+        <v>12</v>
+      </c>
+      <c r="V38">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <v>12</v>
+      </c>
+      <c r="X38">
+        <v>12</v>
+      </c>
+      <c r="Y38">
+        <v>12</v>
+      </c>
+      <c r="Z38">
         <v>12</v>
       </c>
     </row>

--- a/Output/output.xlsx
+++ b/Output/output.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Projekt Weiterentwicklung der Ausleihe und Auskunft</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
+    <t>('Auskunftstheke', 'Deutz')</t>
+  </si>
+  <si>
+    <t>('Auskunftstheke', 'GM')</t>
+  </si>
+  <si>
+    <t>('Auskunftstheke', 'Südstadt')</t>
+  </si>
+  <si>
+    <t>('Ausleihtheke', 'Deutz')</t>
+  </si>
+  <si>
+    <t>('Ausleihtheke', 'GM')</t>
+  </si>
+  <si>
+    <t>('Ausleihtheke', 'Südstadt')</t>
   </si>
   <si>
     <t xml:space="preserve">Qualitative Erfassung der gestellten Fragen </t>
@@ -130,25 +145,43 @@
     <t>8. Weder noch (siehe einzelne Listen)</t>
   </si>
   <si>
+    <t>23. KW</t>
+  </si>
+  <si>
+    <t>Auskunftstheke</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Deutz</t>
+  </si>
+  <si>
+    <t>Südstadt</t>
+  </si>
+  <si>
+    <t>Ausleihtheke</t>
+  </si>
+  <si>
     <t>24. KW</t>
   </si>
   <si>
-    <t>Auskunftstheke</t>
-  </si>
-  <si>
-    <t>Deutz</t>
-  </si>
-  <si>
-    <t>Ausleihtheke</t>
-  </si>
-  <si>
-    <t>23. KW</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Südstadt</t>
+    <t>23. KW24. KW</t>
+  </si>
+  <si>
+    <t>AuskunftsthekeAuskunftstheke</t>
+  </si>
+  <si>
+    <t>DeutzDeutz</t>
+  </si>
+  <si>
+    <t>GMGM</t>
+  </si>
+  <si>
+    <t>SüdstadtSüdstadt</t>
+  </si>
+  <si>
+    <t>AusleihthekeAusleihtheke</t>
   </si>
 </sst>
 </file>
@@ -506,364 +539,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -902,48 +911,30 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-      <c r="W9">
-        <v>8</v>
-      </c>
-      <c r="X9">
-        <v>8</v>
-      </c>
-      <c r="Y9">
-        <v>8</v>
-      </c>
-      <c r="Z9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -982,48 +973,30 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>4</v>
-      </c>
-      <c r="Z10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1062,48 +1035,30 @@
         <v>4</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>4</v>
-      </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11">
-        <v>4</v>
-      </c>
-      <c r="X11">
-        <v>4</v>
-      </c>
-      <c r="Y11">
-        <v>4</v>
-      </c>
-      <c r="Z11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1142,48 +1097,30 @@
         <v>12</v>
       </c>
       <c r="O12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T12">
-        <v>12</v>
-      </c>
-      <c r="U12">
-        <v>12</v>
-      </c>
-      <c r="V12">
-        <v>12</v>
-      </c>
-      <c r="W12">
-        <v>12</v>
-      </c>
-      <c r="X12">
-        <v>12</v>
-      </c>
-      <c r="Y12">
-        <v>12</v>
-      </c>
-      <c r="Z12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1222,56 +1159,56 @@
         <v>5</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>5</v>
-      </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="X13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1310,48 +1247,30 @@
         <v>7</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T15">
-        <v>7</v>
-      </c>
-      <c r="U15">
-        <v>7</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>7</v>
-      </c>
-      <c r="X15">
-        <v>7</v>
-      </c>
-      <c r="Y15">
-        <v>7</v>
-      </c>
-      <c r="Z15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -1390,48 +1309,30 @@
         <v>19</v>
       </c>
       <c r="O16">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P16">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R16">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="S16">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="T16">
-        <v>19</v>
-      </c>
-      <c r="U16">
-        <v>19</v>
-      </c>
-      <c r="V16">
-        <v>19</v>
-      </c>
-      <c r="W16">
-        <v>19</v>
-      </c>
-      <c r="X16">
-        <v>19</v>
-      </c>
-      <c r="Y16">
-        <v>19</v>
-      </c>
-      <c r="Z16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1470,48 +1371,30 @@
         <v>13</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="R17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="S17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="T17">
-        <v>13</v>
-      </c>
-      <c r="U17">
-        <v>13</v>
-      </c>
-      <c r="V17">
-        <v>13</v>
-      </c>
-      <c r="W17">
-        <v>13</v>
-      </c>
-      <c r="X17">
-        <v>13</v>
-      </c>
-      <c r="Y17">
-        <v>13</v>
-      </c>
-      <c r="Z17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1550,48 +1433,30 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1630,48 +1495,30 @@
         <v>5</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>5</v>
-      </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>5</v>
-      </c>
-      <c r="Z19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1710,48 +1557,30 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="R20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="S20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="T20">
-        <v>19</v>
-      </c>
-      <c r="U20">
-        <v>19</v>
-      </c>
-      <c r="V20">
-        <v>19</v>
-      </c>
-      <c r="W20">
-        <v>19</v>
-      </c>
-      <c r="X20">
-        <v>19</v>
-      </c>
-      <c r="Y20">
-        <v>19</v>
-      </c>
-      <c r="Z20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1790,48 +1619,30 @@
         <v>4</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>4</v>
-      </c>
-      <c r="V21">
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <v>4</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>15</v>
@@ -1870,48 +1681,30 @@
         <v>15</v>
       </c>
       <c r="O22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="R22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T22">
-        <v>15</v>
-      </c>
-      <c r="U22">
-        <v>15</v>
-      </c>
-      <c r="V22">
-        <v>15</v>
-      </c>
-      <c r="W22">
-        <v>15</v>
-      </c>
-      <c r="X22">
-        <v>15</v>
-      </c>
-      <c r="Y22">
-        <v>15</v>
-      </c>
-      <c r="Z22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -1950,48 +1743,30 @@
         <v>45</v>
       </c>
       <c r="O23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="P23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="R23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="S23">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="T23">
-        <v>45</v>
-      </c>
-      <c r="U23">
-        <v>45</v>
-      </c>
-      <c r="V23">
-        <v>45</v>
-      </c>
-      <c r="W23">
-        <v>45</v>
-      </c>
-      <c r="X23">
-        <v>45</v>
-      </c>
-      <c r="Y23">
-        <v>45</v>
-      </c>
-      <c r="Z23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -2030,48 +1805,30 @@
         <v>18</v>
       </c>
       <c r="O24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="S24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="T24">
-        <v>18</v>
-      </c>
-      <c r="U24">
-        <v>18</v>
-      </c>
-      <c r="V24">
-        <v>18</v>
-      </c>
-      <c r="W24">
-        <v>18</v>
-      </c>
-      <c r="X24">
-        <v>18</v>
-      </c>
-      <c r="Y24">
-        <v>18</v>
-      </c>
-      <c r="Z24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2110,48 +1867,30 @@
         <v>8</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T25">
-        <v>8</v>
-      </c>
-      <c r="U25">
-        <v>8</v>
-      </c>
-      <c r="V25">
-        <v>8</v>
-      </c>
-      <c r="W25">
-        <v>8</v>
-      </c>
-      <c r="X25">
-        <v>8</v>
-      </c>
-      <c r="Y25">
-        <v>8</v>
-      </c>
-      <c r="Z25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -2190,48 +1929,30 @@
         <v>11</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S26">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T26">
-        <v>11</v>
-      </c>
-      <c r="U26">
-        <v>11</v>
-      </c>
-      <c r="V26">
-        <v>11</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
-      </c>
-      <c r="X26">
-        <v>11</v>
-      </c>
-      <c r="Y26">
-        <v>11</v>
-      </c>
-      <c r="Z26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -2270,56 +1991,56 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T27">
-        <v>8</v>
-      </c>
-      <c r="U27">
-        <v>8</v>
-      </c>
-      <c r="V27">
-        <v>8</v>
-      </c>
-      <c r="W27">
-        <v>8</v>
-      </c>
-      <c r="X27">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>8</v>
-      </c>
-      <c r="Z27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2358,56 +2079,56 @@
         <v>10</v>
       </c>
       <c r="O29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T29">
-        <v>10</v>
-      </c>
-      <c r="U29">
-        <v>10</v>
-      </c>
-      <c r="V29">
-        <v>10</v>
-      </c>
-      <c r="W29">
-        <v>10</v>
-      </c>
-      <c r="X29">
-        <v>10</v>
-      </c>
-      <c r="Y29">
-        <v>10</v>
-      </c>
-      <c r="Z29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>34</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2446,48 +2167,30 @@
         <v>8</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T31">
-        <v>8</v>
-      </c>
-      <c r="U31">
-        <v>8</v>
-      </c>
-      <c r="V31">
-        <v>8</v>
-      </c>
-      <c r="W31">
-        <v>8</v>
-      </c>
-      <c r="X31">
-        <v>8</v>
-      </c>
-      <c r="Y31">
-        <v>8</v>
-      </c>
-      <c r="Z31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2526,56 +2229,56 @@
         <v>2</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>2</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>37</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>21</v>
@@ -2614,48 +2317,30 @@
         <v>21</v>
       </c>
       <c r="O34">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="P34">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="R34">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="S34">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="T34">
-        <v>21</v>
-      </c>
-      <c r="U34">
-        <v>21</v>
-      </c>
-      <c r="V34">
-        <v>21</v>
-      </c>
-      <c r="W34">
-        <v>21</v>
-      </c>
-      <c r="X34">
-        <v>21</v>
-      </c>
-      <c r="Y34">
-        <v>21</v>
-      </c>
-      <c r="Z34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2694,48 +2379,30 @@
         <v>6</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T35">
-        <v>6</v>
-      </c>
-      <c r="U35">
-        <v>6</v>
-      </c>
-      <c r="V35">
-        <v>6</v>
-      </c>
-      <c r="W35">
-        <v>6</v>
-      </c>
-      <c r="X35">
-        <v>6</v>
-      </c>
-      <c r="Y35">
-        <v>6</v>
-      </c>
-      <c r="Z35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2774,48 +2441,30 @@
         <v>5</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36">
-        <v>5</v>
-      </c>
-      <c r="U36">
-        <v>5</v>
-      </c>
-      <c r="V36">
-        <v>5</v>
-      </c>
-      <c r="W36">
-        <v>5</v>
-      </c>
-      <c r="X36">
-        <v>5</v>
-      </c>
-      <c r="Y36">
-        <v>5</v>
-      </c>
-      <c r="Z36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2854,48 +2503,30 @@
         <v>10</v>
       </c>
       <c r="O37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T37">
-        <v>10</v>
-      </c>
-      <c r="U37">
-        <v>10</v>
-      </c>
-      <c r="V37">
-        <v>10</v>
-      </c>
-      <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="X37">
-        <v>10</v>
-      </c>
-      <c r="Y37">
-        <v>10</v>
-      </c>
-      <c r="Z37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -2934,40 +2565,22 @@
         <v>12</v>
       </c>
       <c r="O38">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P38">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R38">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S38">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T38">
-        <v>12</v>
-      </c>
-      <c r="U38">
-        <v>12</v>
-      </c>
-      <c r="V38">
-        <v>12</v>
-      </c>
-      <c r="W38">
-        <v>12</v>
-      </c>
-      <c r="X38">
-        <v>12</v>
-      </c>
-      <c r="Y38">
-        <v>12</v>
-      </c>
-      <c r="Z38">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
